--- a/medicine/Mort/Nécropoles_militaires_de_Lorraine/Nécropoles_militaires_de_Lorraine.xlsx
+++ b/medicine/Mort/Nécropoles_militaires_de_Lorraine/Nécropoles_militaires_de_Lorraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
+          <t>Nécropoles_militaires_de_Lorraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article est une liste des nécropoles militaires en Lorraine. Théâtre de nombreux combats, en 1870 et 1871, de 1914 à 1918 et de 1939 à 1945, la Lorraine a vu mourir de nombreux soldats de chaque camp. Aussi accueille-t-elle un nombre important de nécropoles, ossuaires et autres cimetières militaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
+          <t>Nécropoles_militaires_de_Lorraine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nécropoles françaises de Meurthe-et-Moselle
-Badonviller : 2 653 Français dont 1 209 en 2 ossuaires (1914-1918) et 28 Français (1939-1945) ;
+          <t>Nécropoles françaises de Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Badonviller : 2 653 Français dont 1 209 en 2 ossuaires (1914-1918) et 28 Français (1939-1945) ;
 Baslieux : 800 Français, 1 ossuaire (1914-1918) ;
 Bayon : 163 Français (1914-1918) ;
 Champenoux : 1 585 Français (1914-1918) ;
@@ -563,8 +580,47 @@
 			Nécropole française de Thil.
 			Nécropole française de Villette.
 			Nécropole française de Ville-Houdlemont.
-Autres cimetières militaires et nécropoles nationales de Meurthe-et-Moselle
-Baccarat 144 Français (1914-1918)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Autres cimetières militaires et nécropoles nationales de Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baccarat 144 Français (1914-1918)
 Bénaménil 68 Français (1914-1918)
 Blainville-sur-l'Eau 10 Français (1870-1871) (1914-1918)
 Champigneulles 36 tombes individuelles et ossuaire (1914-1918) (1939-1945)
@@ -598,7 +654,47 @@
 			Nécropole françaisede Longwy.
 			Nécropole françaisede Nancy.
 			Nécropole françaisede Pont-à-Mousson.
-Guerre 1870-1871
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			cimetière militaire guerre (1870-1871) de Longwy.
 			cimetière ossuaire guerre (1870-1871 de Jarny.
 Bruville 850 Français (1870-1871)
@@ -609,9 +705,43 @@
 Longuyon cimetière communal ossuaire (1870-1871)
 Longwy 18 Français (1870-1871)
 Pont-à-Mousson cimetière français, nombre inconnu (1870-1871)
-Ville-sur-Yron 41 Français et Allemands (1870-1871)
-Nécropoles françaises de Meuse
-Ambly-sur-Meuse : 111 Français (1914-1918)
+Ville-sur-Yron 41 Français et Allemands (1870-1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Meuse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ambly-sur-Meuse : 111 Français (1914-1918)
 Apremont-la-Forêt (Marbotte) : 2 268 Français en tombes et 388 en ossuaire (1914-1918)
 Avocourt : 1 896 Français (1914-1918)(1939-1945)
 Bar-le-Duc, Nécropole nationale (Bar-le-Duc) : 3 132 Français en tombes et 63 en ossuaire (1914-1918)
@@ -690,8 +820,47 @@
 			Nécropole française de Verdun (bevaux)
 			Nécropole française de Verdun (Le Faubourg Pavé).
 			Nécropole française de Verdun (glorieux)
-Autres nécropoles militaires de Meuse
-Ancerville 20 Français (1914-1918)(1939-1945)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Meuse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres nécropoles militaires de Meuse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ancerville 20 Français (1914-1918)(1939-1945)
 Arrancy-sur-Crusne 70 Français en tombes, 1 ossuaire de 230 militaires (1914-1918)
 Blercourt 70 Français (1914-1918), ancienne nécropole française
 Clermont-en-Argonne 51 Français (1914-1918)
@@ -706,13 +875,85 @@
 Sorcy-Saint-Martin 97 Français (1914-1918)
 Stenay 24 Français (1914-1918)(1939-1945)
 Stenay ossuaire avec 157 Français, 17 Russes et 9 Belges (1914-1918)
-Troyon 18 Français (1914-1918)
-Guerre 1870-1871
-Bar-le-Duc 18 Français (1870-1871)
+Troyon 18 Français (1914-1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Meuse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bar-le-Duc 18 Français (1870-1871)
 Damvillers ossuaire franco-allemand, nombre inconnu (1870-1871)
-Luzy-Saint-Martin cimetière militaire (1870-1871) et ancien cimetière militaire franco-allemand (1914-1918). Tombe collective franco-allemande 18 soldats allemands et 22 soldats français (1914-1918)
-Nécropoles françaises de Moselle
-Abreschviller (La Valette) partie française:464 Français dont 77 inconnus, en 83 tombes et 2 ossuaires, partie allemande:370 Allemands dont 117 inconnus, en 70 tombes et 1 ossuaire (1914-1918)
+Luzy-Saint-Martin cimetière militaire (1870-1871) et ancien cimetière militaire franco-allemand (1914-1918). Tombe collective franco-allemande 18 soldats allemands et 22 soldats français (1914-1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Moselle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abreschviller (La Valette) partie française:464 Français dont 77 inconnus, en 83 tombes et 2 ossuaires, partie allemande:370 Allemands dont 117 inconnus, en 70 tombes et 1 ossuaire (1914-1918)
 Belles-Forêts Bisping partie française: 618 Français, partie allemande : 598 Allemands(1914-1918)
 Brouderdorff 76 militaires et ossuaire avec 390 soldats.
 Château-Bréhain Nécropole française
@@ -754,14 +995,91 @@
 			Nécropole française de Thionville.
 			Nécropole française de Vergaville.
 			Nécropole française de Walscheid
-Autres nécropoles militaires de Moselle
-Bréhain 1 Ossuaire avec 56 militaires français (1914-1918)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Moselle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres nécropoles militaires de Moselle</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bréhain 1 Ossuaire avec 56 militaires français (1914-1918)
 Château-Bréhain 1 Ossuaire avec 47 militaires français (1914-1918)
 Delme nombre indeterminé soldats français (1914-1918)
 Forbach 38 militaires français 1 yougoslave (1914-1918)
-Saint-Avold 61 Français et 24 militaires étrangers dont 9 russes et 2 soviétiques (1914-1918)(1939-1945)
-Guerre 1870-1871
-Amanvillers 588 militaires, dont 585 inconnus (1870-1871)
+Saint-Avold 61 Français et 24 militaires étrangers dont 9 russes et 2 soviétiques (1914-1918)(1939-1945)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises de Moselle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanvillers 588 militaires, dont 585 inconnus (1870-1871)
 Ars-sur-Moselle Franco-Allemand (1870-1871).
 Gorze nombre inconnu, en tombes collectives (1870-1871)
 Gravelotte Franco-Allemand, avec ossuaires, nombre inconnu, militaires inconnus (1870-1871)
@@ -790,8 +1108,43 @@
 			Cimetière militaire de Saint-Privat-la-Montagne.
 			Cimetière militaire franco-allemand de Spicheren
 			Cimetière militaire franco-allemand de Rozérieulles.
-Nécropoles françaises des Vosges
-Ban-de-Sapt : La Fontenelle, 1 384 militaires dont 424 en ossuaire où un monument en souvenir des combats de la guerre 1914-1918 se dresse au milieu de la forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises des Vosges</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ban-de-Sapt : La Fontenelle, 1 384 militaires dont 424 en ossuaire où un monument en souvenir des combats de la guerre 1914-1918 se dresse au milieu de la forêt.
 Bertrimoutier : 953 tombes, dont 12 russes et 1 roumain inconnu cimetière militaire franco-allemand.
 Épinal 1398 Français (1914-1918) (1939-1945)
 Ménil-sur-Belvitte 1096 Français dont 197 en ossuaire (1914-1918)
@@ -808,8 +1161,47 @@
 			Nécropole française de Saint-Dié-des-Vosges
 			Nécropole française de Saulcy-sur-Meurthe
 			Nécropole française de Senones
-Autres nécropoles militaires des Vosges
-Ban-de-Laveline 18 Français (1914-1918)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises des Vosges</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres nécropoles militaires des Vosges</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Ban-de-Laveline 18 Français (1914-1918)
 Bruyères 422 militaires, dont 7 russes et 1 polonais (1914-1918)
 Celles-sur-Plaine 23 Français (1914-1918)
 Charmes 37 Français (1914-1918)
@@ -832,42 +1224,85 @@
 Remiremont 146 Français (1914-1918)
 Saint-Dié-des-Vosges cimetière de Foucharupt 51 Français (1939-1945)
 Saint-Jean-d'Ormont 108 Français et 3 Allemands (1914-1918)
-Taintrux 20 Français (1914-1918)
-Guerre 1870-1871
-Épinal 22 Français (1870-1871)
+Taintrux 20 Français (1914-1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises[1]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Nécropoles françaises des Vosges</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Épinal 22 Français (1870-1871)
 Nompatelize : nécropole allemande et française (1870) "Dans le cimetière de Nompatelize reposent 700 soldats français et allemands tombés le 6 octobre 1870 lors de la bataille de la Bourgonce qui a fait 1 500 morts."
 Saint-Dié-des-Vosges 29 Français (1870-1871)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Nécropoles allemandes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Meurthe-et-Moselle
-Andilly : 33 085 Allemands - Cimetière militaire allemand d'Andilly (1939-1945), plus grande nécropole militaire allemande de la Seconde Guerre mondiale sur le sol français.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andilly : 33 085 Allemands - Cimetière militaire allemand d'Andilly (1939-1945), plus grande nécropole militaire allemande de la Seconde Guerre mondiale sur le sol français.
 Bouillonville : 1 368 Allemands (1914-1918) - Cimetière militaire allemand de Bouillonville
 Briey : 2 244 Allemands (1914-1918).
 Charency-Vezin : 55 Allemands, 14 Français (1914-1918).
@@ -891,13 +1326,86 @@
 			Cimetière militaire allemand de Pierrepont.
 			Cimetière militaire allemand de Rembercourt-sur-Mad.
 			Cimetière militaire allemand de Thiaucourt.
-Guerre 1870-1871
-Mars-la-Tour cimetière communal 1 000 soldats allemands (1870-1871).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Meurthe-et-Moselle</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mars-la-Tour cimetière communal 1 000 soldats allemands (1870-1871).
 Pont-à-Mousson 303 Prussiens, 23 Bavarois, 22 Saxons, 6 Hessois, 1 Wurtembourgois (1870-1871)
 Saint-Ail, nombre inconnu (1870-1871).
-Toul cimetière prussien, nombre inconnu (1870-1871)
-Meuse
-Amel-sur-l'Étang : 2 284 Allemands (1914-1918).
+Toul cimetière prussien, nombre inconnu (1870-1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amel-sur-l'Étang : 2 284 Allemands (1914-1918).
 Azannes-et-Soumazannes : 817 Allemands (1914-1918).
 Azannes-et-Soumazannes au lieu-dit Le Bochet : 4 750 Allemands (1914-1918).
 Bouligny : 1 439 Allemands (1914-1918).
@@ -956,10 +1464,83 @@
 			Cimetière militaire allemand de Troyon Vaux-lès-Palameix.
 			Cimetière militaire allemand de Viéville-sous-les-Côtes.
 			Cimetière militaire allemand de Ville-devant-Chaumont.
-Guerre 1870-1871
-Haudainville tombe collective allemande (1870-1871)
-Moselle
-Abreschviller 370 Allemands dont 117 inconnus, en 70 tombes et 1 ossuaire (1914-1918). Situé dans l'enceinte de la nécropole française "La Valette".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Meuse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Haudainville tombe collective allemande (1870-1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abreschviller 370 Allemands dont 117 inconnus, en 70 tombes et 1 ossuaire (1914-1918). Situé dans l'enceinte de la nécropole française "La Valette".
 Algrange 30 Allemands.
 Avricourt 559 Allemands, 6 Français, 3 russes (1914-1918).
 Belles-Forêts (Bisping) 598 Allemands, 618 Français (1914-1918). Situé dans l'enceinte de la nécropole française.
@@ -997,8 +1578,47 @@
 			Cimetière militaire allemand de Spicheren 1939-1945.
 			Cimetière militaire allemand de Thionville.
 			Cimetière militaire allemand de Walscheid.
-Guerre 1870-1871
-Amanvillers, nombre inconnu (1870-1871).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Moselle</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanvillers, nombre inconnu (1870-1871).
 Ancy-sur-Moselle 91 Allemands (1870-1871).
 Châtel-Saint-Germain 52 Allemands (1870-1871).
 Coincy ferme d'Aubigny 46 Allemands (1870-1871).
@@ -1019,45 +1639,121 @@
 			Cimetière prussien, rue d'Aquitaine de Sainte-Marie-aux-Chênes.
 			Cimetière prussien rue de Metz de Sainte-Marie-aux-Chênes.
 			Cimetière prussien rue Rabelais de Sainte-Marie-aux-Chênes.
-Vosges
-Bertrimoutier 6749 Allemands, 950 Français : Cimetière militaire franco-allemand de Bertrimoutier (1914-1918)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertrimoutier 6749 Allemands, 950 Français : Cimetière militaire franco-allemand de Bertrimoutier (1914-1918)
 Neufchâteau 120 Allemands, 831 Français (1914-1918) et 47 Français (1939-1945). Situé dans l'enceinte de la nécropole française.
 Saulcy-sur-Meurthe 375 Allemands, 2567 Français (1914-1918).
 Senones 1528 Allemands, 795 Français (1914-1918).
 			Cimetière militaire franco-allemand de Bertrimoutier.
 			Cimetière militaire allemand de Neufchâteau.
 			Cimetière militaire allemand de Senones.
-Guerre 1870-1871 Vosges
-Nompatelize : nécropole allemande et française (1870) "Dans le cimetière de Nompatelize reposent 700 soldats français et allemands tombés le 6 octobre 1870 lors de la bataille de la Bourgonce qui a fait 1 500 morts."
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Nécropoles allemandes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Vosges</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Guerre 1870-1871 Vosges</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nompatelize : nécropole allemande et française (1870) "Dans le cimetière de Nompatelize reposent 700 soldats français et allemands tombés le 6 octobre 1870 lors de la bataille de la Bourgonce qui a fait 1 500 morts."
 Raon-l'Étape 26 Allemands (1870-1871)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Nécropoles américaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinozé : « World War II Epinal American Cemetery and Memorial » - 5 255 sépultures
 Romagne-sous-Montfaucon : « World War I Meuse-Argonne American Cemetery and Memorial » - 14 286 sépultures
@@ -1071,31 +1767,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Nécropoles britanniques et Commonwealth</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Essegney : Première Guerre mondiale, 148 soldats Britanniques, 11 soldats canadiens, 44 soldats indiens, 148 soldats chinois : Seconde Guerre mondiale, 11 soldats britanniques; 1 soldat canadien, 1 soldat indien, 2 soldats allemands, 1 soldat russe.
 Metz-Chambière 103 Britanniques. Situé dans l'enceinte de la nécropole française.
@@ -1109,31 +1807,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Nécropole italienne</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Longwy cimetière militaire italien 1914-1918.
 Metz Chambière 88 Italiens. Situé dans l'enceinte de la nécropole française.
@@ -1143,31 +1843,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Nécropoles polonaises</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Dieuze 233 Polonais dont 64 inconnus (1939-1945). Situé dans l'enceinte de la nécropole française.
 Sarrebourg-Buhl (Buhl, le Marxberg) 77 Polonais (1939-1945). Situé dans l'enceinte de la nécropole française.
@@ -1175,62 +1877,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Nécropoles roumaines</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Dieuze 943 Roumains (1939-1945). Situé dans l'enceinte de la nécropole française.
 Senones 11 Roumains (1914-1918). Situé dans l'enceinte de la nécropole française.</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Nécropoles russes et soviétiques</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Algrange 150 Soviétiques (1914-1918) (1939-1945)
 Bertrimoutier 12 Russes. Situé dans l'enceinte de la nécropole française.
@@ -1258,31 +1964,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nécropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/N%C3%A9cropoles_militaires_de_Lorraine</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Nécropole yougoslave</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Sarrebourg-Buhl (Buhl, le Marxberg) 69 yougoslaves (1939-1945). Situé dans l'enceinte de la nécropole française.</t>
         </is>
